--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ammar\eclipse-workspace\first-Test\src\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51736FA-36F3-40C4-BBEC-E3FA4D77DC4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5AD750-DF42-423A-A80B-A31D1A7C2C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7875" xr2:uid="{E22CB6AE-A954-4914-ACDC-B6F965400DDD}"/>
+    <workbookView xWindow="4620" yWindow="3015" windowWidth="15375" windowHeight="7875" xr2:uid="{E22CB6AE-A954-4914-ACDC-B6F965400DDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -48,16 +48,20 @@
     <t>Apache_POI_TC</t>
   </si>
   <si>
-    <t>testuser_1</t>
-  </si>
-  <si>
-    <t>Test@123</t>
+    <t>student</t>
+  </si>
+  <si>
+    <t>Password123</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,10 +426,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.875" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" width="13.625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="10.875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -452,10 +455,13 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{87A539AF-FF63-4C4A-AEB1-D18C74A80788}"/>
+    <hyperlink ref="C2" r:id="rId1" display="Test@123" xr:uid="{87A539AF-FF63-4C4A-AEB1-D18C74A80788}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -426,9 +426,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.875" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" width="13.625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="10.875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="16.875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="13.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
